--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_244.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.675</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:04.160000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:09.840000', '0:01:21.680000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[('0:00:22.320000', '0:00:26.180000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.358974358974359</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B', 'B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['C', 'C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(76.56, 94.12)]</t>
+          <t>[('0:00:09.107074', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:04.514625', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3904761904761905</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[('0:00:20.420000', '0:00:23.500000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:06.740000', '0:00:13.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.9, 17.86)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[('0:00:09.260000', '0:00:13.900000'), ('0:00:01.180000', '0:00:06.140000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1187888198757764</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:min/B', 'F#:7/B', 'B:min', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.3, 30.46)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(5.02, 8.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(14.2, 18.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
